--- a/Document/9.Meeting record/Lịch-sử-họp-nhóm-Họp-với-Mentor.xlsx
+++ b/Document/9.Meeting record/Lịch-sử-họp-nhóm-Họp-với-Mentor.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Team Meeting" sheetId="2" r:id="rId1"/>
     <sheet name="Meeting with Mentor" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -278,9 +278,6 @@
     <t>4h00 PM</t>
   </si>
   <si>
-    <t>Bắt đầu sprint 1</t>
-  </si>
-  <si>
     <t>Chỉnh sửa database sprint 1</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Review tất cả tài liệu và show demo hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>Bắt đầu sprint 1 và chia việc cho từng thành viên</t>
   </si>
 </sst>
 </file>
@@ -622,9 +622,6 @@
     <xf numFmtId="18" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -664,6 +661,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,9 +715,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -720,9 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1068,7 +1068,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1086,12 +1086,12 @@
       <c r="F3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1109,12 +1109,12 @@
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="12">
@@ -1132,12 +1132,12 @@
       <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="12">
@@ -1155,12 +1155,12 @@
       <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
       <c r="B7" s="12">
@@ -1178,12 +1178,12 @@
       <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8" s="12">
@@ -1201,12 +1201,12 @@
       <c r="F8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
       <c r="B9" s="12">
@@ -1224,12 +1224,12 @@
       <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="17">
@@ -1244,15 +1244,15 @@
       <c r="E10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11" s="17">
@@ -1267,15 +1267,15 @@
       <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
       <c r="B12" s="16">
@@ -1290,15 +1290,15 @@
       <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
       <c r="B13" s="18">
@@ -1313,15 +1313,15 @@
       <c r="E13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
       <c r="B14" s="17">
@@ -1336,15 +1336,15 @@
       <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="99" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
       <c r="B15" s="17">
@@ -1359,15 +1359,15 @@
       <c r="E15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
       <c r="B16" s="17">
@@ -1382,21 +1382,21 @@
       <c r="E16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
       <c r="B17" s="18">
         <v>43381</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -1405,15 +1405,15 @@
       <c r="E17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
       <c r="B18" s="17">
@@ -1428,13 +1428,13 @@
       <c r="E18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
       <c r="B19" s="17">
@@ -1449,15 +1449,15 @@
       <c r="E19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
       <c r="B20" s="17">
@@ -1472,15 +1472,15 @@
       <c r="E20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
       <c r="B21" s="17">
@@ -1495,15 +1495,15 @@
       <c r="E21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
       <c r="B22" s="17">
@@ -1518,13 +1518,13 @@
       <c r="E22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
       <c r="B23" s="17">
@@ -1539,96 +1539,96 @@
       <c r="E23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>43417</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <v>24</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>43421</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="28" t="s">
+      <c r="D25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>43426</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>43430</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1767,7 +1767,7 @@
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>80</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1775,93 +1775,93 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="42">
+      <c r="A6" s="30"/>
+      <c r="B6" s="44">
         <v>43260</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>6</v>
+      </c>
+      <c r="B9" s="44">
+        <v>43321</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G9" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
-        <v>5</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>6</v>
-      </c>
-      <c r="B9" s="42">
-        <v>43321</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="41"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>74</v>
@@ -1873,7 +1873,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>71</v>
@@ -1884,7 +1884,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>74</v>
@@ -1896,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>71</v>
@@ -1919,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>71</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>71</v>
@@ -1964,8 +1964,8 @@
       <c r="E16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>91</v>
+      <c r="F16" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>71</v>
@@ -1976,7 +1976,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>74</v>
@@ -1987,8 +1987,8 @@
       <c r="E17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>97</v>
+      <c r="F17" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>71</v>
@@ -1999,7 +1999,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>74</v>
@@ -2011,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>71</v>
@@ -2034,7 +2034,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>71</v>
@@ -2057,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>71</v>
@@ -2068,7 +2068,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>74</v>
@@ -2080,43 +2080,43 @@
         <v>15</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
+      <c r="A22" s="34">
         <v>17</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="36">
         <v>43112</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>100</v>
+      <c r="D22" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+      <c r="A23" s="34">
         <v>18</v>
       </c>
       <c r="B23" s="17">
         <v>43263</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2125,8 +2125,8 @@
       <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>102</v>
+      <c r="F23" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>71</v>
